--- a/static/Media/SampleExcels/examschedule.xlsx
+++ b/static/Media/SampleExcels/examschedule.xlsx
@@ -65,9 +65,6 @@
     <t>ExamName</t>
   </si>
   <si>
-    <t>4eaaeb6f-c5c2-42eb-ac43-7af720b3e542</t>
-  </si>
-  <si>
     <t>eew</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>second year</t>
+  </si>
+  <si>
+    <t>teacher e</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,9 +432,9 @@
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
@@ -486,10 +486,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="C2" s="3">
         <v>0.375</v>
@@ -498,13 +498,13 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -516,13 +516,13 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/static/Media/SampleExcels/examschedule.xlsx
+++ b/static/Media/SampleExcels/examschedule.xlsx
@@ -74,16 +74,16 @@
     <t>2024-07-22 to 2024-07-22</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>practicalaaaa</t>
-  </si>
-  <si>
     <t>second year</t>
   </si>
   <si>
     <t>teacher e</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,7 +434,7 @@
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
@@ -498,16 +498,16 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I2" s="3">
         <v>0.375</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/Media/SampleExcels/examschedule.xlsx
+++ b/static/Media/SampleExcels/examschedule.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\OneRoof\SchoolERP\schoolerp\static\Media\SampleExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School  ERP\schoolerp\static\Media\SampleExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,9 +59,6 @@
     <t>ExamEndTime</t>
   </si>
   <si>
-    <t>InvigilatorId</t>
-  </si>
-  <si>
     <t>ExamName</t>
   </si>
   <si>
@@ -84,12 +81,15 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>Invigilator name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -481,12 +481,12 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>45484</v>
@@ -498,13 +498,13 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>80</v>
@@ -516,13 +516,13 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
